--- a/Price Marks.xlsx
+++ b/Price Marks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,7 @@
           <t>https://item.jd.com/100140584252.html</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -478,11 +474,7 @@
           <t>https://item.jd.com/100140584254.html</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -495,7 +487,173 @@
           <t>https://item.jd.com/100157733909.html</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-12-03 21:16:45</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://item.jd.com/100140584252.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-12-03 21:16:45</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://item.jd.com/100140584254.html</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-12-03 21:16:45</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://item.jd.com/100157733909.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-12-03 21:23:22</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://item.jd.com/100140584252.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-12-03 21:23:22</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://item.jd.com/100140584254.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-12-03 21:23:22</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://item.jd.com/100157733909.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-12-03 21:46:26</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://item.jd.com/100140584252.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-12-03 21:46:26</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://item.jd.com/100140584254.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-12-03 21:46:26</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://item.jd.com/100157733909.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-12-03 21:50:49</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://item.jd.com/100140584252.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-12-03 21:50:49</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://item.jd.com/100140584254.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-12-03 21:50:49</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://item.jd.com/100157733909.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
